--- a/mapping/mapping_nols.xlsx
+++ b/mapping/mapping_nols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nettverk Norge\FO Bildrift\60 Analyse\Rapportmaler\08 Leaseplan kontering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nettverk Norge\Felles\Kontering LP\bildrift_lp_posting\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA60C2-246B-4B9B-A805-C089E5010949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660F475-7998-4980-8BB6-1A5F006FFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontering" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +319,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F20FB33F-97A9-43EF-ABDB-6A04FEAD84B2}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -647,7 +649,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mapping/mapping_nols.xlsx
+++ b/mapping/mapping_nols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nettverk Norge\Felles\Kontering LP\bildrift_lp_posting\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660F475-7998-4980-8BB6-1A5F006FFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6F80A-609C-43FA-AFC6-9131E80AF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontering" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Kodeforklaring</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>Frem</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Depositum for mva tilbakeføring</t>
+  </si>
+  <si>
+    <t>Dekkhotell</t>
+  </si>
+  <si>
+    <t>Serviceavtaler biler</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}" name="Tabell1" displayName="Tabell1" ref="A1:G27" totalsRowShown="0">
-  <autoFilter ref="A1:G27" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}" name="Tabell1" displayName="Tabell1" ref="A1:G30" totalsRowShown="0">
+  <autoFilter ref="A1:G30" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{04F23A6D-CAC5-4168-8DC5-4E289B1DB539}" name="Kodeforklaring" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F26739D3-7946-4CBC-99B3-22CE668C0E42}" name="Konto"/>
@@ -646,25 +659,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85517707-C519-447B-B585-75C9A3C405EC}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -710,7 +723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -733,7 +746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -756,7 +769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -776,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -796,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -819,7 +832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -842,7 +855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -862,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -885,7 +898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -905,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -925,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -948,7 +961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -971,7 +984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1014,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -1244,6 +1257,66 @@
       </c>
       <c r="F27" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>431200</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>1166</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3">
+        <v>421100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1175</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>431500</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>1201</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mapping_nols.xlsx
+++ b/mapping/mapping_nols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nettverk Norge\Felles\Kontering LP\bildrift_lp_posting\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6F80A-609C-43FA-AFC6-9131E80AF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A7A60-EFB3-43F1-A611-E874E9A45ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3789B234-9D36-4C8B-BF65-5FBA0B4BEF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontering" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>Kodeforklaring</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Serviceavtaler biler</t>
+  </si>
+  <si>
+    <t>Leasingvederlag - mva. tilbakeføring</t>
   </si>
 </sst>
 </file>
@@ -347,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}" name="Tabell1" displayName="Tabell1" ref="A1:G30" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}" name="Tabell1" displayName="Tabell1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{C35F09C4-AE22-466A-ACA2-8EA43E65103E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{04F23A6D-CAC5-4168-8DC5-4E289B1DB539}" name="Kodeforklaring" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F26739D3-7946-4CBC-99B3-22CE668C0E42}" name="Konto"/>
@@ -659,25 +662,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85517707-C519-447B-B585-75C9A3C405EC}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -723,7 +726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -746,7 +749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -769,7 +772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -789,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -809,7 +812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -832,7 +835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -855,7 +858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -875,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -898,7 +901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -918,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -938,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -961,7 +964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -984,7 +987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1276,10 +1279,10 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1317,6 +1320,26 @@
       </c>
       <c r="F30" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>421100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>1175</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
